--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>564366.6408985726</v>
+        <v>632863.5144448626</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10856505.26084865</v>
+        <v>11298237.53592887</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11438882.45432443</v>
+        <v>11950863.02291737</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7440965.908353037</v>
+        <v>7174606.879407434</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>182.7502478952342</v>
+        <v>198.0587259522634</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1014415085483</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.4102822806467</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.546207247984995</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9801572847739</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8241148653592</v>
+        <v>63.64267758120639</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20.1703126826321</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30.17940152597933</v>
+        <v>115.4072449803151</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1017118863802</v>
+        <v>117.4222259244546</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9740485861346</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5606138195733</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2375190295712</v>
+        <v>286.2463995561034</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9713271686691</v>
+        <v>279.786487875363</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.105556316152</v>
+        <v>141.3764205704603</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.1089535775791</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>16.68460668190929</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,13 +1694,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5610554858539</v>
+        <v>135.7552541698324</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.546207247984981</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>193.7629142609857</v>
       </c>
       <c r="U15" t="n">
-        <v>170.1203152950589</v>
+        <v>225.8368910945684</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>39.08436889489784</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4966233649313</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.5111146855415</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.2885403512635</v>
+        <v>200.8113768131845</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.2562550645985</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2375190295712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9713271686691</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>309.0741210194245</v>
       </c>
       <c r="I17" t="n">
-        <v>82.04169218827653</v>
+        <v>96.03456082960264</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>141.3764205704603</v>
       </c>
       <c r="T17" t="n">
-        <v>18.36623490476974</v>
+        <v>210.1014415085483</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>92.79314538217538</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>100.3775459775245</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5610554858539</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.02061698412976</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.546207247984981</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5747272283733</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9801572847739</v>
+        <v>193.7629142609857</v>
       </c>
       <c r="U18" t="n">
-        <v>152.8848774141026</v>
+        <v>225.8368910945684</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5606138195733</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.1983722869333</v>
+        <v>243.567347420586</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>126.4682554050496</v>
+        <v>263.7029148373725</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1081765755814</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>51.01666425119134</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7552541698324</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>96.89616743202788</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.546207247984981</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5747272283733</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9801572847739</v>
+        <v>193.7629142609857</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8241148653592</v>
+        <v>225.8368910945684</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>113.2457921981353</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.7902163355369</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5606138195733</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2463995561034</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.7335899742467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>303.0631397119122</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>28.65760221190948</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.5027752869404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>144.2554484570979</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.50913286091434</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>225.8888291856956</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G27" t="n">
         <v>135.3343964518635</v>
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2769,19 +2769,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>90.32706253001675</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.60901662446967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>238.0731517446778</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>81.2147041564298</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
         <v>65.70991267247049</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I30" t="n">
         <v>20.22295923705013</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>41.28371368070851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>209.7339065810866</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>179.9509818150098</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>30.62396594700514</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
         <v>192.0665623188214</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>64.59154889794335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.3387326418233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>58.02993390906974</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>138.0793653087008</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83156789269653</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.3332554667404</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>183.6273400079292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>124.4908617909721</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>240.7234287304683</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>131.6945929587566</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.3387326418233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>93.22727381925112</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>203.7296756369897</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.5801449806295</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7960897571496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>120.6582081311699</v>
+        <v>1.96873497197616</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.89010232327534</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>120.3332554667404</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>994.8915912337136</v>
+        <v>643.6984499387102</v>
       </c>
       <c r="C11" t="n">
-        <v>994.8915912337136</v>
+        <v>643.6984499387102</v>
       </c>
       <c r="D11" t="n">
-        <v>636.6258926269632</v>
+        <v>643.6984499387102</v>
       </c>
       <c r="E11" t="n">
-        <v>636.6258926269632</v>
+        <v>643.6984499387102</v>
       </c>
       <c r="F11" t="n">
-        <v>225.6399878373556</v>
+        <v>232.7125451491026</v>
       </c>
       <c r="G11" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H11" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I11" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J11" t="n">
-        <v>141.7301283651826</v>
+        <v>102.8421778513309</v>
       </c>
       <c r="K11" t="n">
-        <v>343.3713858013301</v>
+        <v>258.775740305577</v>
       </c>
       <c r="L11" t="n">
-        <v>630.4269578484723</v>
+        <v>489.1268749768054</v>
       </c>
       <c r="M11" t="n">
-        <v>981.5010288823762</v>
+        <v>777.1063336546212</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.869653801083</v>
+        <v>1074.359409425932</v>
       </c>
       <c r="O11" t="n">
-        <v>1670.7645378566</v>
+        <v>1341.711798524486</v>
       </c>
       <c r="P11" t="n">
-        <v>1916.114234422775</v>
+        <v>1535.389876345018</v>
       </c>
       <c r="Q11" t="n">
-        <v>2052.188892108478</v>
+        <v>1632.661300270106</v>
       </c>
       <c r="R11" t="n">
-        <v>2052.188892108478</v>
+        <v>1632.661300270106</v>
       </c>
       <c r="S11" t="n">
-        <v>2052.188892108478</v>
+        <v>1632.661300270106</v>
       </c>
       <c r="T11" t="n">
-        <v>2052.188892108478</v>
+        <v>1420.437621978644</v>
       </c>
       <c r="U11" t="n">
-        <v>2052.188892108478</v>
+        <v>1420.437621978644</v>
       </c>
       <c r="V11" t="n">
-        <v>1721.126004764908</v>
+        <v>1420.437621978644</v>
       </c>
       <c r="W11" t="n">
-        <v>1368.357349494793</v>
+        <v>1420.437621978644</v>
       </c>
       <c r="X11" t="n">
-        <v>994.8915912337136</v>
+        <v>1420.437621978644</v>
       </c>
       <c r="Y11" t="n">
-        <v>994.8915912337136</v>
+        <v>1030.298290002832</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>670.2032297631183</v>
+        <v>661.8126779263509</v>
       </c>
       <c r="C12" t="n">
-        <v>495.7502004819913</v>
+        <v>487.359648645224</v>
       </c>
       <c r="D12" t="n">
-        <v>346.8157908207401</v>
+        <v>338.4252389839727</v>
       </c>
       <c r="E12" t="n">
-        <v>187.5783358152846</v>
+        <v>179.1877839785172</v>
       </c>
       <c r="F12" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="G12" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H12" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I12" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J12" t="n">
-        <v>190.8810040115205</v>
+        <v>55.63943792538713</v>
       </c>
       <c r="K12" t="n">
-        <v>601.1887511723919</v>
+        <v>429.1182957920639</v>
       </c>
       <c r="L12" t="n">
-        <v>847.1706067875596</v>
+        <v>633.355994425413</v>
       </c>
       <c r="M12" t="n">
-        <v>1153.576698248145</v>
+        <v>891.0486236329</v>
       </c>
       <c r="N12" t="n">
-        <v>1482.50109212566</v>
+        <v>1169.970254862907</v>
       </c>
       <c r="O12" t="n">
-        <v>1761.182856728542</v>
+        <v>1402.909260475934</v>
       </c>
       <c r="P12" t="n">
-        <v>1965.51647559744</v>
+        <v>1570.530282502606</v>
       </c>
       <c r="Q12" t="n">
-        <v>2052.188892108478</v>
+        <v>1632.661300270106</v>
       </c>
       <c r="R12" t="n">
-        <v>2052.188892108478</v>
+        <v>1631.099474767091</v>
       </c>
       <c r="S12" t="n">
-        <v>2052.188892108478</v>
+        <v>1631.099474767091</v>
       </c>
       <c r="T12" t="n">
-        <v>1857.259440305676</v>
+        <v>1631.099474767091</v>
       </c>
       <c r="U12" t="n">
-        <v>1629.154273775011</v>
+        <v>1566.813941856782</v>
       </c>
       <c r="V12" t="n">
-        <v>1394.002165543268</v>
+        <v>1331.661833625039</v>
       </c>
       <c r="W12" t="n">
-        <v>1139.764808815066</v>
+        <v>1077.424476896838</v>
       </c>
       <c r="X12" t="n">
-        <v>931.9133086095335</v>
+        <v>869.5729766913048</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1530098445796</v>
+        <v>661.8126779263509</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.52802180780526</v>
+        <v>319.7168933601088</v>
       </c>
       <c r="C13" t="n">
-        <v>71.52802180780526</v>
+        <v>319.7168933601088</v>
       </c>
       <c r="D13" t="n">
-        <v>71.52802180780526</v>
+        <v>169.6002539477731</v>
       </c>
       <c r="E13" t="n">
-        <v>71.52802180780526</v>
+        <v>169.6002539477731</v>
       </c>
       <c r="F13" t="n">
-        <v>71.52802180780526</v>
+        <v>149.2262007329932</v>
       </c>
       <c r="G13" t="n">
-        <v>71.52802180780526</v>
+        <v>149.2262007329932</v>
       </c>
       <c r="H13" t="n">
-        <v>71.52802180780526</v>
+        <v>149.2262007329932</v>
       </c>
       <c r="I13" t="n">
-        <v>41.04377784216957</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J13" t="n">
-        <v>53.21264858163111</v>
+        <v>33.42656069606387</v>
       </c>
       <c r="K13" t="n">
-        <v>203.0466780495357</v>
+        <v>164.5342238654392</v>
       </c>
       <c r="L13" t="n">
-        <v>450.3090843205816</v>
+        <v>387.8333285366301</v>
       </c>
       <c r="M13" t="n">
-        <v>721.40174608035</v>
+        <v>633.6600486621621</v>
       </c>
       <c r="N13" t="n">
-        <v>991.4830466872163</v>
+        <v>879.076175254698</v>
       </c>
       <c r="O13" t="n">
-        <v>1224.9305462084</v>
+        <v>1089.741394399549</v>
       </c>
       <c r="P13" t="n">
-        <v>1401.164529121649</v>
+        <v>1246.481200690291</v>
       </c>
       <c r="Q13" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946954</v>
       </c>
       <c r="R13" t="n">
-        <v>1328.530873419621</v>
+        <v>1152.956328932354</v>
       </c>
       <c r="S13" t="n">
-        <v>1128.55708696898</v>
+        <v>1152.956328932354</v>
       </c>
       <c r="T13" t="n">
-        <v>904.7584871512297</v>
+        <v>1152.956328932354</v>
       </c>
       <c r="U13" t="n">
-        <v>615.6296800506527</v>
+        <v>863.8185516029563</v>
       </c>
       <c r="V13" t="n">
-        <v>360.9451918447659</v>
+        <v>609.1340633970694</v>
       </c>
       <c r="W13" t="n">
-        <v>71.52802180780526</v>
+        <v>319.7168933601088</v>
       </c>
       <c r="X13" t="n">
-        <v>71.52802180780526</v>
+        <v>319.7168933601088</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.52802180780526</v>
+        <v>319.7168933601088</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>868.1623363375035</v>
+        <v>726.251744810528</v>
       </c>
       <c r="C14" t="n">
-        <v>868.1623363375035</v>
+        <v>726.251744810528</v>
       </c>
       <c r="D14" t="n">
-        <v>868.1623363375035</v>
+        <v>726.251744810528</v>
       </c>
       <c r="E14" t="n">
-        <v>868.1623363375035</v>
+        <v>726.251744810528</v>
       </c>
       <c r="F14" t="n">
-        <v>457.1764315478959</v>
+        <v>315.2658400209204</v>
       </c>
       <c r="G14" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H14" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I14" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J14" t="n">
-        <v>141.7301283651826</v>
+        <v>102.8421778513313</v>
       </c>
       <c r="K14" t="n">
-        <v>343.3713858013301</v>
+        <v>258.7757403055775</v>
       </c>
       <c r="L14" t="n">
-        <v>630.4269578484723</v>
+        <v>489.1268749768061</v>
       </c>
       <c r="M14" t="n">
-        <v>981.5010288823762</v>
+        <v>777.1063336546217</v>
       </c>
       <c r="N14" t="n">
-        <v>1342.869653801083</v>
+        <v>1074.359409425932</v>
       </c>
       <c r="O14" t="n">
-        <v>1670.7645378566</v>
+        <v>1341.711798524486</v>
       </c>
       <c r="P14" t="n">
-        <v>1916.114234422776</v>
+        <v>1535.389876345018</v>
       </c>
       <c r="Q14" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R14" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="S14" t="n">
-        <v>1917.738835223477</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="T14" t="n">
-        <v>1917.738835223477</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="U14" t="n">
-        <v>1917.738835223477</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.901508377437</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="W14" t="n">
-        <v>1644.901508377437</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="X14" t="n">
-        <v>1644.901508377437</v>
+        <v>1116.39107678634</v>
       </c>
       <c r="Y14" t="n">
-        <v>1254.762176401625</v>
+        <v>726.251744810528</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>807.1335888397385</v>
+        <v>493.1671843112475</v>
       </c>
       <c r="C15" t="n">
-        <v>632.6805595586115</v>
+        <v>318.7141550301205</v>
       </c>
       <c r="D15" t="n">
-        <v>483.7461498973602</v>
+        <v>169.7797453688692</v>
       </c>
       <c r="E15" t="n">
-        <v>324.5086948919047</v>
+        <v>169.7797453688692</v>
       </c>
       <c r="F15" t="n">
-        <v>177.9741369187897</v>
+        <v>169.7797453688692</v>
       </c>
       <c r="G15" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H15" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I15" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J15" t="n">
-        <v>82.19403148612902</v>
+        <v>75.21372391573718</v>
       </c>
       <c r="K15" t="n">
-        <v>492.5017786470004</v>
+        <v>192.655646001884</v>
       </c>
       <c r="L15" t="n">
-        <v>738.483634262168</v>
+        <v>396.8933446352331</v>
       </c>
       <c r="M15" t="n">
-        <v>1044.889725722754</v>
+        <v>654.5859738427203</v>
       </c>
       <c r="N15" t="n">
-        <v>1373.814119600268</v>
+        <v>933.5076050727273</v>
       </c>
       <c r="O15" t="n">
-        <v>1761.182856728542</v>
+        <v>1166.446610685755</v>
       </c>
       <c r="P15" t="n">
-        <v>1965.51647559744</v>
+        <v>1570.530282502606</v>
       </c>
       <c r="Q15" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R15" t="n">
-        <v>2052.188892108479</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="S15" t="n">
-        <v>2052.188892108479</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="T15" t="n">
-        <v>2052.188892108479</v>
+        <v>1435.379359351954</v>
       </c>
       <c r="U15" t="n">
-        <v>1880.350189790237</v>
+        <v>1207.261287539259</v>
       </c>
       <c r="V15" t="n">
-        <v>1645.198081558495</v>
+        <v>972.1091793075166</v>
       </c>
       <c r="W15" t="n">
-        <v>1390.960724830293</v>
+        <v>717.871822579315</v>
       </c>
       <c r="X15" t="n">
-        <v>1183.10922462476</v>
+        <v>510.0203223737822</v>
       </c>
       <c r="Y15" t="n">
-        <v>975.3489258598065</v>
+        <v>510.0203223737822</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.7692543453875</v>
+        <v>72.13238650529894</v>
       </c>
       <c r="C16" t="n">
-        <v>765.7692543453875</v>
+        <v>72.13238650529894</v>
       </c>
       <c r="D16" t="n">
-        <v>615.6526149330517</v>
+        <v>72.13238650529894</v>
       </c>
       <c r="E16" t="n">
-        <v>467.7395213506586</v>
+        <v>72.13238650529894</v>
       </c>
       <c r="F16" t="n">
-        <v>320.8495738527482</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="G16" t="n">
-        <v>152.6711664134236</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H16" t="n">
-        <v>152.6711664134236</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I16" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J16" t="n">
-        <v>53.21264858163113</v>
+        <v>33.42656069606388</v>
       </c>
       <c r="K16" t="n">
-        <v>203.0466780495357</v>
+        <v>164.5342238654392</v>
       </c>
       <c r="L16" t="n">
-        <v>450.3090843205816</v>
+        <v>387.8333285366302</v>
       </c>
       <c r="M16" t="n">
-        <v>721.40174608035</v>
+        <v>633.6600486621624</v>
       </c>
       <c r="N16" t="n">
-        <v>991.4830466872163</v>
+        <v>879.0761752546982</v>
       </c>
       <c r="O16" t="n">
-        <v>1224.9305462084</v>
+        <v>1089.74139439955</v>
       </c>
       <c r="P16" t="n">
-        <v>1401.164529121649</v>
+        <v>1246.481200690292</v>
       </c>
       <c r="Q16" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="R16" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="S16" t="n">
-        <v>1282.887612343982</v>
+        <v>1068.724863388182</v>
       </c>
       <c r="T16" t="n">
-        <v>1282.887612343982</v>
+        <v>844.2235956461637</v>
       </c>
       <c r="U16" t="n">
-        <v>993.7588052434048</v>
+        <v>844.2235956461637</v>
       </c>
       <c r="V16" t="n">
-        <v>993.7588052434048</v>
+        <v>589.5391074402769</v>
       </c>
       <c r="W16" t="n">
-        <v>993.7588052434048</v>
+        <v>300.1219374033163</v>
       </c>
       <c r="X16" t="n">
-        <v>765.7692543453875</v>
+        <v>72.13238650529894</v>
       </c>
       <c r="Y16" t="n">
-        <v>765.7692543453875</v>
+        <v>72.13238650529894</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>925.8350802959144</v>
+        <v>852.8398195314007</v>
       </c>
       <c r="C17" t="n">
-        <v>925.8350802959144</v>
+        <v>852.8398195314007</v>
       </c>
       <c r="D17" t="n">
-        <v>925.8350802959144</v>
+        <v>852.8398195314007</v>
       </c>
       <c r="E17" t="n">
-        <v>540.0468276976702</v>
+        <v>852.8398195314007</v>
       </c>
       <c r="F17" t="n">
-        <v>540.0468276976702</v>
+        <v>441.8539147417932</v>
       </c>
       <c r="G17" t="n">
-        <v>123.9141739919439</v>
+        <v>441.8539147417932</v>
       </c>
       <c r="H17" t="n">
-        <v>123.9141739919439</v>
+        <v>129.6578329039907</v>
       </c>
       <c r="I17" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J17" t="n">
-        <v>141.7301283651826</v>
+        <v>102.8421778513313</v>
       </c>
       <c r="K17" t="n">
-        <v>343.3713858013301</v>
+        <v>258.7757403055775</v>
       </c>
       <c r="L17" t="n">
-        <v>630.4269578484723</v>
+        <v>489.1268749768061</v>
       </c>
       <c r="M17" t="n">
-        <v>981.5010288823762</v>
+        <v>777.1063336546217</v>
       </c>
       <c r="N17" t="n">
-        <v>1342.869653801083</v>
+        <v>1074.359409425932</v>
       </c>
       <c r="O17" t="n">
-        <v>1670.7645378566</v>
+        <v>1341.711798524486</v>
       </c>
       <c r="P17" t="n">
-        <v>1916.114234422776</v>
+        <v>1535.389876345018</v>
       </c>
       <c r="Q17" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R17" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="S17" t="n">
-        <v>2052.188892108479</v>
+        <v>1489.85683504742</v>
       </c>
       <c r="T17" t="n">
-        <v>2033.637139679418</v>
+        <v>1277.633156755957</v>
       </c>
       <c r="U17" t="n">
-        <v>2033.637139679418</v>
+        <v>1277.633156755957</v>
       </c>
       <c r="V17" t="n">
-        <v>1702.574252335848</v>
+        <v>946.570269412386</v>
       </c>
       <c r="W17" t="n">
-        <v>1702.574252335848</v>
+        <v>946.570269412386</v>
       </c>
       <c r="X17" t="n">
-        <v>1702.574252335848</v>
+        <v>852.8398195314007</v>
       </c>
       <c r="Y17" t="n">
-        <v>1312.434920360036</v>
+        <v>852.8398195314007</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>743.8765550303737</v>
+        <v>134.0446865887602</v>
       </c>
       <c r="C18" t="n">
-        <v>569.4235257492467</v>
+        <v>134.0446865887602</v>
       </c>
       <c r="D18" t="n">
-        <v>420.4891160879954</v>
+        <v>134.0446865887602</v>
       </c>
       <c r="E18" t="n">
-        <v>420.4891160879954</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="F18" t="n">
-        <v>273.9545581148803</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0241990382602</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H18" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I18" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J18" t="n">
-        <v>207.0241564731338</v>
+        <v>55.63943792538716</v>
       </c>
       <c r="K18" t="n">
-        <v>382.8062016442474</v>
+        <v>429.1182957920633</v>
       </c>
       <c r="L18" t="n">
-        <v>628.788057259415</v>
+        <v>633.3559944254124</v>
       </c>
       <c r="M18" t="n">
-        <v>935.194148720001</v>
+        <v>891.0486236328995</v>
       </c>
       <c r="N18" t="n">
-        <v>1264.118542597515</v>
+        <v>1169.970254862907</v>
       </c>
       <c r="O18" t="n">
-        <v>1542.800307200397</v>
+        <v>1402.909260475934</v>
       </c>
       <c r="P18" t="n">
-        <v>1747.133926069295</v>
+        <v>1570.530282502606</v>
       </c>
       <c r="Q18" t="n">
-        <v>2041.782857438824</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R18" t="n">
-        <v>2052.188892108479</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="S18" t="n">
-        <v>1912.214420160627</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="T18" t="n">
-        <v>1717.284968357825</v>
+        <v>1435.379359351954</v>
       </c>
       <c r="U18" t="n">
-        <v>1562.855799252671</v>
+        <v>1207.261287539259</v>
       </c>
       <c r="V18" t="n">
-        <v>1327.703691020928</v>
+        <v>972.1091793075166</v>
       </c>
       <c r="W18" t="n">
-        <v>1327.703691020928</v>
+        <v>717.871822579315</v>
       </c>
       <c r="X18" t="n">
-        <v>1119.852190815395</v>
+        <v>510.0203223737822</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.0918920504416</v>
+        <v>302.2600236088282</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="C19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="D19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="E19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="F19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="G19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J19" t="n">
-        <v>53.21264858163113</v>
+        <v>33.42656069606388</v>
       </c>
       <c r="K19" t="n">
-        <v>203.0466780495357</v>
+        <v>164.5342238654392</v>
       </c>
       <c r="L19" t="n">
-        <v>450.3090843205816</v>
+        <v>387.8333285366302</v>
       </c>
       <c r="M19" t="n">
-        <v>721.40174608035</v>
+        <v>633.6600486621624</v>
       </c>
       <c r="N19" t="n">
-        <v>991.4830466872163</v>
+        <v>879.0761752546982</v>
       </c>
       <c r="O19" t="n">
-        <v>1224.9305462084</v>
+        <v>1089.74139439955</v>
       </c>
       <c r="P19" t="n">
-        <v>1401.164529121649</v>
+        <v>1246.481200690292</v>
       </c>
       <c r="Q19" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="R19" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="T19" t="n">
-        <v>1215.946123992154</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="U19" t="n">
-        <v>1033.927566126565</v>
+        <v>1025.537014289797</v>
       </c>
       <c r="V19" t="n">
-        <v>779.2430779206777</v>
+        <v>770.8525260839101</v>
       </c>
       <c r="W19" t="n">
-        <v>489.825907883717</v>
+        <v>481.4353560469496</v>
       </c>
       <c r="X19" t="n">
-        <v>261.8363569856997</v>
+        <v>253.4458051489322</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1334.526164700786</v>
+        <v>1026.248022196375</v>
       </c>
       <c r="C20" t="n">
-        <v>965.5636477603746</v>
+        <v>657.2855052559632</v>
       </c>
       <c r="D20" t="n">
-        <v>965.5636477603746</v>
+        <v>299.0198066492127</v>
       </c>
       <c r="E20" t="n">
-        <v>579.7753951621303</v>
+        <v>299.0198066492127</v>
       </c>
       <c r="F20" t="n">
-        <v>168.7894903725227</v>
+        <v>299.0198066492127</v>
       </c>
       <c r="G20" t="n">
-        <v>168.7894903725227</v>
+        <v>299.0198066492127</v>
       </c>
       <c r="H20" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I20" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J20" t="n">
-        <v>141.7301283651826</v>
+        <v>102.8421778513313</v>
       </c>
       <c r="K20" t="n">
-        <v>343.3713858013301</v>
+        <v>258.7757403055775</v>
       </c>
       <c r="L20" t="n">
-        <v>630.4269578484723</v>
+        <v>489.1268749768059</v>
       </c>
       <c r="M20" t="n">
-        <v>981.5010288823762</v>
+        <v>777.1063336546217</v>
       </c>
       <c r="N20" t="n">
-        <v>1342.869653801083</v>
+        <v>1074.359409425932</v>
       </c>
       <c r="O20" t="n">
-        <v>1670.7645378566</v>
+        <v>1341.711798524486</v>
       </c>
       <c r="P20" t="n">
-        <v>1916.114234422776</v>
+        <v>1535.389876345018</v>
       </c>
       <c r="Q20" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R20" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="S20" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="T20" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="U20" t="n">
-        <v>2052.188892108479</v>
+        <v>1379.016677466489</v>
       </c>
       <c r="V20" t="n">
-        <v>1721.126004764908</v>
+        <v>1379.016677466489</v>
       </c>
       <c r="W20" t="n">
-        <v>1721.126004764908</v>
+        <v>1026.248022196375</v>
       </c>
       <c r="X20" t="n">
-        <v>1721.126004764908</v>
+        <v>1026.248022196375</v>
       </c>
       <c r="Y20" t="n">
-        <v>1721.126004764908</v>
+        <v>1026.248022196375</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>415.9632008766603</v>
+        <v>442.1076912480042</v>
       </c>
       <c r="C21" t="n">
-        <v>241.5101715955333</v>
+        <v>267.6546619668773</v>
       </c>
       <c r="D21" t="n">
-        <v>92.57576193428204</v>
+        <v>267.6546619668773</v>
       </c>
       <c r="E21" t="n">
-        <v>41.04377784216958</v>
+        <v>267.6546619668773</v>
       </c>
       <c r="F21" t="n">
-        <v>41.04377784216958</v>
+        <v>267.6546619668773</v>
       </c>
       <c r="G21" t="n">
-        <v>41.04377784216958</v>
+        <v>130.5281426034101</v>
       </c>
       <c r="H21" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I21" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J21" t="n">
-        <v>82.19403148612902</v>
+        <v>55.63943792538716</v>
       </c>
       <c r="K21" t="n">
-        <v>230.6811940045476</v>
+        <v>173.081360011534</v>
       </c>
       <c r="L21" t="n">
-        <v>543.5874748596101</v>
+        <v>462.2113282215886</v>
       </c>
       <c r="M21" t="n">
-        <v>849.993566320196</v>
+        <v>719.9039574290757</v>
       </c>
       <c r="N21" t="n">
-        <v>1178.91796019771</v>
+        <v>998.8255886590828</v>
       </c>
       <c r="O21" t="n">
-        <v>1457.599724800592</v>
+        <v>1402.909260475934</v>
       </c>
       <c r="P21" t="n">
-        <v>1965.51647559744</v>
+        <v>1570.530282502606</v>
       </c>
       <c r="Q21" t="n">
-        <v>2052.188892108479</v>
+        <v>1632.661300270107</v>
       </c>
       <c r="R21" t="n">
-        <v>2052.188892108479</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="S21" t="n">
-        <v>1912.214420160627</v>
+        <v>1631.099474767092</v>
       </c>
       <c r="T21" t="n">
-        <v>1717.284968357825</v>
+        <v>1435.379359351954</v>
       </c>
       <c r="U21" t="n">
-        <v>1489.179801827159</v>
+        <v>1207.261287539259</v>
       </c>
       <c r="V21" t="n">
-        <v>1254.027693595417</v>
+        <v>972.1091793075166</v>
       </c>
       <c r="W21" t="n">
-        <v>999.790336867215</v>
+        <v>857.719490218491</v>
       </c>
       <c r="X21" t="n">
-        <v>791.9388366616822</v>
+        <v>649.8679900129582</v>
       </c>
       <c r="Y21" t="n">
-        <v>584.1785378967284</v>
+        <v>442.1076912480042</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.0735108368984</v>
+        <v>283.3716748523397</v>
       </c>
       <c r="C22" t="n">
-        <v>339.0735108368984</v>
+        <v>283.3716748523397</v>
       </c>
       <c r="D22" t="n">
-        <v>188.9568714245627</v>
+        <v>179.5431735033125</v>
       </c>
       <c r="E22" t="n">
-        <v>41.04377784216958</v>
+        <v>179.5431735033125</v>
       </c>
       <c r="F22" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="G22" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="H22" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="I22" t="n">
-        <v>41.04377784216958</v>
+        <v>32.65322600540213</v>
       </c>
       <c r="J22" t="n">
-        <v>53.21264858163113</v>
+        <v>33.42656069606388</v>
       </c>
       <c r="K22" t="n">
-        <v>203.0466780495357</v>
+        <v>164.5342238654392</v>
       </c>
       <c r="L22" t="n">
-        <v>450.3090843205816</v>
+        <v>387.8333285366302</v>
       </c>
       <c r="M22" t="n">
-        <v>721.40174608035</v>
+        <v>633.6600486621624</v>
       </c>
       <c r="N22" t="n">
-        <v>991.4830466872163</v>
+        <v>879.0761752546982</v>
       </c>
       <c r="O22" t="n">
-        <v>1224.9305462084</v>
+        <v>1089.74139439955</v>
       </c>
       <c r="P22" t="n">
-        <v>1401.164529121649</v>
+        <v>1246.481200690292</v>
       </c>
       <c r="Q22" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="R22" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="S22" t="n">
-        <v>1439.744723809905</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="T22" t="n">
-        <v>1215.946123992154</v>
+        <v>1271.564637946955</v>
       </c>
       <c r="U22" t="n">
-        <v>1215.946123992154</v>
+        <v>982.4268606175573</v>
       </c>
       <c r="V22" t="n">
-        <v>961.261635786267</v>
+        <v>982.4268606175573</v>
       </c>
       <c r="W22" t="n">
-        <v>671.8444657493064</v>
+        <v>693.0096905805967</v>
       </c>
       <c r="X22" t="n">
-        <v>443.8549148512891</v>
+        <v>465.0201396825794</v>
       </c>
       <c r="Y22" t="n">
-        <v>339.0735108368984</v>
+        <v>465.0201396825794</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>864.8611267254487</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C23" t="n">
-        <v>495.898609785037</v>
+        <v>1047.218566716063</v>
       </c>
       <c r="D23" t="n">
-        <v>495.898609785037</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E23" t="n">
-        <v>495.898609785037</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F23" t="n">
-        <v>495.898609785037</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G23" t="n">
-        <v>80.19385950932582</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H23" t="n">
-        <v>80.19385950932582</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
@@ -5992,13 +5992,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V23" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W23" t="n">
-        <v>1624.92672505065</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X23" t="n">
-        <v>1251.46096678957</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y23" t="n">
-        <v>1251.46096678957</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919906</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M24" t="n">
-        <v>1342.935112151211</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N24" t="n">
-        <v>1730.220240748156</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.290675924318</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P24" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6147,16 +6147,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6177,22 +6177,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.817372234359</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U25" t="n">
-        <v>1150.699034738196</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V25" t="n">
-        <v>896.0145465323095</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W25" t="n">
-        <v>606.597376495349</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X25" t="n">
-        <v>378.6078255973316</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8152464538015</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1624.92672505065</v>
+        <v>831.1952082980224</v>
       </c>
       <c r="C26" t="n">
-        <v>1255.964208110239</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="D26" t="n">
-        <v>897.6985095034881</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E26" t="n">
-        <v>511.9102569052439</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F26" t="n">
-        <v>511.9102569052439</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G26" t="n">
-        <v>96.20550662953275</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>96.20550662953275</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
         <v>795.7553530872915</v>
@@ -6259,19 +6259,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V26" t="n">
-        <v>1977.695380320764</v>
+        <v>2334.16879386915</v>
       </c>
       <c r="W26" t="n">
-        <v>1624.92672505065</v>
+        <v>1981.400138599036</v>
       </c>
       <c r="X26" t="n">
-        <v>1624.92672505065</v>
+        <v>1607.934380337956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.92672505065</v>
+        <v>1217.795048362144</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>448.6792471488051</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
         <v>51.24678656800311</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.9860105762135</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C28" t="n">
-        <v>346.0498276483066</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D28" t="n">
         <v>346.0498276483066</v>
@@ -6417,19 +6417,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>1124.349301773071</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="V28" t="n">
-        <v>869.6648135671838</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W28" t="n">
-        <v>580.2476435302233</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X28" t="n">
-        <v>580.2476435302233</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.9860105762135</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1412.134398099142</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C29" t="n">
-        <v>1412.134398099142</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D29" t="n">
-        <v>1412.134398099142</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E29" t="n">
-        <v>1026.346145500898</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F29" t="n">
-        <v>615.3602407112903</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G29" t="n">
-        <v>199.6554904355792</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H29" t="n">
         <v>117.6204357321147</v>
@@ -6499,16 +6499,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X29" t="n">
-        <v>2188.873570139076</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y29" t="n">
-        <v>1798.734238163264</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F30" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>846.306131908167</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>1480.485115687206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1026499885492</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C31" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F31" t="n">
         <v>51.24678656800311</v>
@@ -6645,28 +6645,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T31" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V31" t="n">
-        <v>1295.533244860336</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W31" t="n">
-        <v>1295.533244860336</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.543693962319</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7511148187889</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>977.0694062730076</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="C32" t="n">
-        <v>977.0694062730076</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D32" t="n">
-        <v>618.8037076662572</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E32" t="n">
-        <v>233.015455068013</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F32" t="n">
-        <v>233.015455068013</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G32" t="n">
-        <v>233.015455068013</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800311</v>
@@ -6703,10 +6703,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2531.406029463787</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926626</v>
+        <v>2322.660388069611</v>
       </c>
       <c r="U32" t="n">
-        <v>2437.640120926626</v>
+        <v>2322.660388069611</v>
       </c>
       <c r="V32" t="n">
-        <v>2106.577233583055</v>
+        <v>2322.660388069611</v>
       </c>
       <c r="W32" t="n">
-        <v>1753.808578312941</v>
+        <v>1969.891732799497</v>
       </c>
       <c r="X32" t="n">
-        <v>1753.808578312941</v>
+        <v>1596.425974538417</v>
       </c>
       <c r="Y32" t="n">
-        <v>1363.669246337129</v>
+        <v>1206.286642562605</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
         <v>607.9167021542605</v>
@@ -6767,40 +6767,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>482.9033490193029</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L33" t="n">
-        <v>777.6069060507746</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O33" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6818,7 +6818,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X33" t="n">
         <v>1307.279776881661</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.24678656800311</v>
+        <v>582.4335451919575</v>
       </c>
       <c r="C34" t="n">
-        <v>51.24678656800311</v>
+        <v>413.4973622640506</v>
       </c>
       <c r="D34" t="n">
-        <v>51.24678656800311</v>
+        <v>263.3807228517148</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800311</v>
+        <v>263.3807228517148</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800311</v>
+        <v>116.4907753538045</v>
       </c>
       <c r="G34" t="n">
         <v>51.24678656800311</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>673.036065727045</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W34" t="n">
-        <v>383.6188956900843</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X34" t="n">
-        <v>155.629344792067</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.24678656800311</v>
+        <v>582.4335451919575</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2051.040280862504</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C35" t="n">
-        <v>1992.424186004858</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D35" t="n">
-        <v>1634.158487398107</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E35" t="n">
-        <v>1248.370234799863</v>
+        <v>668.0804468941474</v>
       </c>
       <c r="F35" t="n">
-        <v>837.3843300102556</v>
+        <v>257.0945421045398</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6795797345444</v>
+        <v>257.0945421045398</v>
       </c>
       <c r="H35" t="n">
         <v>117.6204357321147</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.640120926626</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y35" t="n">
-        <v>2437.640120926626</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7019,22 +7019,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L36" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M36" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.1367340659135</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="C37" t="n">
-        <v>198.1367340659135</v>
+        <v>172.7955294637004</v>
       </c>
       <c r="D37" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E37" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
         <v>51.24678656800311</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V37" t="n">
-        <v>673.036065727045</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W37" t="n">
-        <v>383.6188956900843</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X37" t="n">
-        <v>198.1367340659135</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.1367340659135</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1121.092420148946</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C38" t="n">
-        <v>1121.092420148946</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D38" t="n">
-        <v>1121.092420148946</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E38" t="n">
-        <v>1121.092420148946</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="F38" t="n">
-        <v>710.1065153593388</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G38" t="n">
-        <v>294.4017650836277</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
@@ -7207,19 +7207,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V38" t="n">
-        <v>1897.83159218888</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W38" t="n">
-        <v>1897.83159218888</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X38" t="n">
-        <v>1897.83159218888</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y38" t="n">
-        <v>1507.692260213068</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>614.543024838023</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694948</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828715</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="C40" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="D40" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="E40" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="F40" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
         <v>51.24678656800311</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V40" t="n">
-        <v>673.036065727045</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W40" t="n">
-        <v>383.6188956900843</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X40" t="n">
-        <v>155.629344792067</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1324.80586733131</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C41" t="n">
-        <v>955.8433503908984</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D41" t="n">
-        <v>597.577651784148</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E41" t="n">
-        <v>211.7893991859037</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F41" t="n">
-        <v>211.7893991859037</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G41" t="n">
-        <v>211.7893991859037</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H41" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N41" t="n">
         <v>1656.671415230817</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.640120926626</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="W41" t="n">
-        <v>2084.871465656512</v>
+        <v>2356.551777251681</v>
       </c>
       <c r="X41" t="n">
-        <v>1711.405707395432</v>
+        <v>1983.086018990601</v>
       </c>
       <c r="Y41" t="n">
-        <v>1711.405707395432</v>
+        <v>1592.946687014789</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L42" t="n">
-        <v>1057.327935297104</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M42" t="n">
-        <v>1420.589954256325</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.432194560478</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O42" t="n">
         <v>2175.502629736639</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.18296949591</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="C43" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="D43" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="E43" t="n">
-        <v>51.24678656800311</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="F43" t="n">
-        <v>51.24678656800311</v>
+        <v>205.3681451342956</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7599,22 +7599,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1347.327782578335</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V43" t="n">
-        <v>1092.643294372448</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W43" t="n">
-        <v>803.2261243354876</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X43" t="n">
-        <v>622.6240134696799</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y43" t="n">
-        <v>401.8314343261497</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1148.907795281707</v>
+        <v>1498.238896393306</v>
       </c>
       <c r="C44" t="n">
-        <v>779.9452783412949</v>
+        <v>1129.276379452894</v>
       </c>
       <c r="D44" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E44" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F44" t="n">
-        <v>421.6795797345444</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G44" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O44" t="n">
         <v>2055.22848474084</v>
@@ -7678,22 +7678,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W44" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X44" t="n">
-        <v>1270.784773191979</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y44" t="n">
-        <v>1270.784773191979</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G45" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L45" t="n">
-        <v>854.8429682049859</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O45" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.2467865680031</v>
+        <v>420.8826835256364</v>
       </c>
       <c r="C46" t="n">
-        <v>51.2467865680031</v>
+        <v>420.8826835256364</v>
       </c>
       <c r="D46" t="n">
-        <v>51.2467865680031</v>
+        <v>270.7660441133006</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>122.8529505309075</v>
       </c>
       <c r="F46" t="n">
         <v>51.2467865680031</v>
@@ -7836,22 +7836,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1514.8973771788</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1225.779039682638</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>971.0945514767509</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W46" t="n">
-        <v>681.6773814397902</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="X46" t="n">
-        <v>453.6878305417729</v>
+        <v>641.6752626691665</v>
       </c>
       <c r="Y46" t="n">
-        <v>232.8952513982428</v>
+        <v>420.8826835256364</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>144.7782400090186</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>165.7340233551557</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>168.3332042496898</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>155.313793312247</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>153.1665203597392</v>
       </c>
       <c r="O2" t="n">
-        <v>214.5102874732696</v>
+        <v>158.1007627405435</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>169.7848390257594</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>176.1606832418653</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>105.2368541383191</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>100.9222782029847</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>88.91201201533923</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577182</v>
+        <v>84.20373222002493</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>71.87816767228074</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>88.19871845469135</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>90.31559703694771</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>110.7970155481158</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>128.7148261097669</v>
+        <v>106.3873938617947</v>
       </c>
       <c r="M4" t="n">
-        <v>132.4205420186164</v>
+        <v>108.8793952501326</v>
       </c>
       <c r="N4" t="n">
-        <v>121.3349826493852</v>
+        <v>98.35359173400578</v>
       </c>
       <c r="O4" t="n">
-        <v>132.590766746692</v>
+        <v>111.3637325904322</v>
       </c>
       <c r="P4" t="n">
-        <v>132.7088230120157</v>
+        <v>114.5454282078686</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
-        <v>125.4955336943436</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>129.0262495446562</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
-        <v>118.0213988638391</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O7" t="n">
-        <v>129.5301358016631</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P7" t="n">
-        <v>130.0899244982092</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.318832637939011</v>
+        <v>29.11837961389915</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7848207327187</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>258.6231674550808</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.01052368035675</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.318832637939011</v>
+        <v>29.11837961389912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>19.77200605085861</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>109.7848207327194</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>238.8511614042217</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.01052368035675</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.318832637939011</v>
+        <v>29.11837961389912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>27.57058853807578</v>
+        <v>258.6231674550801</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.318832637939011</v>
+        <v>29.11837961389912</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60042953524737</v>
+        <v>85.74976724919748</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>172.8734002058827</v>
       </c>
       <c r="P21" t="n">
-        <v>306.6496282100506</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.01052368035675</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>255.842170046095</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R30" t="n">
         <v>20.9377812015499</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>186.4490126143854</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L36" t="n">
-        <v>138.939397511106</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>20.9377812015499</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878353</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621887</v>
+        <v>240.4465442417432</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>35.91627445172526</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>414.8754244234233</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>123.0269119439133</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.1148845028669</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>110.027334069493</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>81.52485046677515</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>85.96255371481348</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>167.4364197154365</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>199.2431786296644</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9263404585838</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.7993014162954</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>160.5229813489331</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>149.6861964483834</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>79.80754960572669</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>70.1116293856375</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>168.6748540868082</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>220.6761742630898</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.1266018572201</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3085741960093</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>229.2210792734349</v>
+        <v>214.275557409683</v>
       </c>
       <c r="H11" t="n">
-        <v>305.3569959050225</v>
+        <v>309.0741210194245</v>
       </c>
       <c r="I11" t="n">
-        <v>82.04169218827653</v>
+        <v>96.03456082960265</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.105556316152</v>
+        <v>141.3764205704603</v>
       </c>
       <c r="T11" t="n">
-        <v>208.5126007724766</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0791400801192</v>
+        <v>251.1081765755814</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113.1229013692206</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5610554858539</v>
+        <v>135.7552541698324</v>
       </c>
       <c r="H12" t="n">
-        <v>95.02061698412976</v>
+        <v>96.89616743202788</v>
       </c>
       <c r="I12" t="n">
-        <v>28.02679001259646</v>
+        <v>34.71301663203346</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5747272283733</v>
+        <v>142.1818826084135</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>193.7629142609857</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>162.194213513362</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>125.2507353402991</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4966233649313</v>
+        <v>166.6594330180223</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9409892195318</v>
+        <v>150.3885150442865</v>
       </c>
       <c r="I13" t="n">
-        <v>80.3317131595622</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.8113768131845</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.2562550645985</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>132.5477954865834</v>
       </c>
       <c r="H14" t="n">
-        <v>305.3569959050225</v>
+        <v>309.0741210194245</v>
       </c>
       <c r="I14" t="n">
-        <v>82.04169218827653</v>
+        <v>96.03456082960264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.5126007724766</v>
+        <v>210.1014415085483</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0791400801192</v>
+        <v>251.1081765755814</v>
       </c>
       <c r="V14" t="n">
-        <v>57.64330489255576</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>149.8485769679581</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.02061698412976</v>
+        <v>96.89616743202788</v>
       </c>
       <c r="I15" t="n">
-        <v>28.02679001259646</v>
+        <v>34.71301663203345</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5747272283733</v>
+        <v>142.1818826084135</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9801572847739</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>55.70379957030036</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>106.3366791280334</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.6594330180223</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9409892195318</v>
+        <v>150.3885150442865</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.4072449803151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1017118863802</v>
+        <v>117.4222259244546</v>
       </c>
       <c r="S16" t="n">
-        <v>42.68550823487104</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5606138195733</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2463995561034</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.3342833619465</v>
       </c>
       <c r="H17" t="n">
-        <v>305.3569959050225</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.105556316152</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>190.1463658677068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0791400801192</v>
+        <v>251.1081765755814</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>276.9379552962936</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>57.26753447787645</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7552541698324</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>96.89616743202788</v>
       </c>
       <c r="I18" t="n">
-        <v>28.02679001259646</v>
+        <v>34.71301663203345</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>142.1818826084135</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>72.93923745125659</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4966233649313</v>
+        <v>166.6594330180223</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9409892195318</v>
+        <v>150.3885150442865</v>
       </c>
       <c r="I19" t="n">
-        <v>110.5111146855415</v>
+        <v>115.4072449803151</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1017118863802</v>
+        <v>117.4222259244546</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9740485861346</v>
+        <v>200.8113768131845</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.2562550645985</v>
       </c>
       <c r="U19" t="n">
-        <v>106.0391467426379</v>
+        <v>42.6790521355174</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9713271686691</v>
+        <v>412.3342833619465</v>
       </c>
       <c r="H20" t="n">
-        <v>178.8887404999729</v>
+        <v>45.37120618205199</v>
       </c>
       <c r="I20" t="n">
-        <v>82.04169218827653</v>
+        <v>96.03456082960264</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.105556316152</v>
+        <v>141.3764205704603</v>
       </c>
       <c r="T20" t="n">
-        <v>208.5126007724766</v>
+        <v>210.1014415085483</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0791400801192</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>106.6284162042096</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5610554858539</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.02061698412976</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>28.02679001259646</v>
+        <v>34.71301663203345</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>142.1818826084135</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>138.4491909627843</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>45.82525668267547</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4966233649313</v>
+        <v>166.6594330180223</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9409892195318</v>
+        <v>150.3885150442865</v>
       </c>
       <c r="I22" t="n">
-        <v>110.5111146855415</v>
+        <v>115.4072449803151</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1017118863802</v>
+        <v>117.4222259244546</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9740485861346</v>
+        <v>200.8113768131845</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.2562550645985</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2375190295712</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.851063377848</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>51.61990190877077</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>37.05231046056102</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.32920489499688</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>76.49324754011408</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>21.20077981155615</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>101.8634292844393</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>195.9000915911839</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.9756367276251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>144.6606899188028</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>219.8038484059756</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>210.8539296431195</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.850746771008204</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>121.0675707473956</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>92.82824945178922</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>101.7150511468608</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25125,10 +25125,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>307.2429578619378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>162.9391872537045</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
         <v>206.6581849802338</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.282217551472</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3066000448042</v>
@@ -25362,10 +25362,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>42.08231538110797</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>282.3851839507393</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>60.29512383193708</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>13.72645506417464</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25599,7 +25599,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.2459207102715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>207.7912787431542</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
@@ -25687,16 +25687,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>124.0225828331452</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>13.72645506417464</v>
       </c>
       <c r="H43" t="n">
         <v>147.2515091551288</v>
@@ -25839,7 +25839,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>46.91356563188751</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.0756335323106</v>
+        <v>380.7651066915044</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>74.5309456996559</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26076,7 +26076,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>100.4154405304715</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>339111.4731777331</v>
+        <v>332653.352265621</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>338619.8977062166</v>
+        <v>320879.7355132957</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>320879.7355132957</v>
+        <v>318696.3219018516</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693113.0206562793</v>
+        <v>621354.5748211743</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693113.0206562794</v>
+        <v>621354.5748211743</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693113.0206562795</v>
+        <v>621354.5748211743</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693113.0206562794</v>
+        <v>621354.5748211744</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780582.8535323237</v>
+        <v>780582.8535323238</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.853532324</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.8535323237</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.8535323237</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.8535323237</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780582.8535323238</v>
+        <v>780582.853532324</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109105.1589487766</v>
+        <v>112304.8332285271</v>
       </c>
       <c r="C2" t="n">
-        <v>109706.0586773343</v>
+        <v>116666.7018518212</v>
       </c>
       <c r="D2" t="n">
-        <v>116666.7018518212</v>
+        <v>117549.9109363699</v>
       </c>
       <c r="E2" t="n">
-        <v>271696.4549212091</v>
+        <v>243336.5448568655</v>
       </c>
       <c r="F2" t="n">
-        <v>271696.454921209</v>
+        <v>243336.5448568656</v>
       </c>
       <c r="G2" t="n">
-        <v>271696.4549212091</v>
+        <v>243336.5448568655</v>
       </c>
       <c r="H2" t="n">
-        <v>271696.4549212089</v>
+        <v>243336.5448568656</v>
       </c>
       <c r="I2" t="n">
         <v>305971.6304943086</v>
@@ -26340,7 +26340,7 @@
         <v>305971.6304943086</v>
       </c>
       <c r="K2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="L2" t="n">
         <v>305971.6304943086</v>
@@ -26349,13 +26349,13 @@
         <v>305971.6304943086</v>
       </c>
       <c r="N2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="O2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="P2" t="n">
-        <v>305971.6304943085</v>
+        <v>305971.6304943087</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22175.99473096512</v>
+        <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>10934.39775200123</v>
+        <v>116999.523487811</v>
       </c>
       <c r="D3" t="n">
-        <v>171076.2135941262</v>
+        <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>630332.3120986762</v>
+        <v>505579.7440838043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.330078872595296e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>113237.0350545018</v>
+        <v>209089.5434857364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127853.4201672503</v>
+        <v>101716.4316681279</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.441418968707115e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66348.57580579144</v>
+        <v>51891.26919430317</v>
       </c>
       <c r="C4" t="n">
-        <v>64354.75101288063</v>
+        <v>29212.98088374246</v>
       </c>
       <c r="D4" t="n">
-        <v>29212.98088374246</v>
+        <v>24821.54456092654</v>
       </c>
       <c r="E4" t="n">
-        <v>14294.5023330197</v>
+        <v>13354.02307135386</v>
       </c>
       <c r="F4" t="n">
-        <v>14294.50233301971</v>
+        <v>13354.02307135385</v>
       </c>
       <c r="G4" t="n">
-        <v>14294.50233301971</v>
+        <v>13354.02307135385</v>
       </c>
       <c r="H4" t="n">
-        <v>14294.50233301971</v>
+        <v>13354.02307135385</v>
       </c>
       <c r="I4" t="n">
         <v>16175.59256035158</v>
@@ -26456,10 +26456,10 @@
         <v>16175.59256035158</v>
       </c>
       <c r="O4" t="n">
-        <v>16175.59256035158</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="P4" t="n">
-        <v>16175.59256035156</v>
+        <v>16175.59256035157</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34129.29174257201</v>
+        <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>34391.06348367693</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>49258.67661634722</v>
+        <v>40913.63652330906</v>
       </c>
       <c r="F5" t="n">
-        <v>49258.67661634722</v>
+        <v>40913.63652330907</v>
       </c>
       <c r="G5" t="n">
-        <v>49258.67661634722</v>
+        <v>40913.63652330907</v>
       </c>
       <c r="H5" t="n">
-        <v>49258.67661634722</v>
+        <v>40913.63652330907</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28619.48962972017</v>
+        <v>-79448.73529047109</v>
       </c>
       <c r="C6" t="n">
-        <v>-15014.89488396486</v>
+        <v>-69760.87826628047</v>
       </c>
       <c r="D6" t="n">
-        <v>-137061.0066112101</v>
+        <v>29669.78001876682</v>
       </c>
       <c r="E6" t="n">
-        <v>-429130.2576273807</v>
+        <v>-317346.780521978</v>
       </c>
       <c r="F6" t="n">
-        <v>201202.0544712954</v>
+        <v>188232.9635618263</v>
       </c>
       <c r="G6" t="n">
-        <v>201202.0544712954</v>
+        <v>188232.9635618262</v>
       </c>
       <c r="H6" t="n">
-        <v>201202.0544712953</v>
+        <v>188232.9635618263</v>
       </c>
       <c r="I6" t="n">
-        <v>112021.3677177189</v>
+        <v>20873.57573618678</v>
       </c>
       <c r="J6" t="n">
-        <v>225258.4027722207</v>
+        <v>229963.1192219231</v>
       </c>
       <c r="K6" t="n">
-        <v>225258.4027722207</v>
+        <v>229963.1192219232</v>
       </c>
       <c r="L6" t="n">
-        <v>225258.4027722207</v>
+        <v>229963.1192219231</v>
       </c>
       <c r="M6" t="n">
-        <v>97404.98260497037</v>
+        <v>128246.6875537952</v>
       </c>
       <c r="N6" t="n">
-        <v>225258.4027722207</v>
+        <v>229963.1192219233</v>
       </c>
       <c r="O6" t="n">
-        <v>225258.4027722206</v>
+        <v>229963.1192219232</v>
       </c>
       <c r="P6" t="n">
-        <v>225258.4027722206</v>
+        <v>229963.1192219232</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912533</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>828.6883236834104</v>
+        <v>738.4029706056625</v>
       </c>
       <c r="F3" t="n">
-        <v>828.6883236834104</v>
+        <v>738.4029706056626</v>
       </c>
       <c r="G3" t="n">
-        <v>828.6883236834104</v>
+        <v>738.4029706056626</v>
       </c>
       <c r="H3" t="n">
-        <v>828.6883236834104</v>
+        <v>738.4029706056626</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="J3" t="n">
         <v>934.0648921175392</v>
@@ -26776,7 +26776,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="P3" t="n">
         <v>934.0648921175393</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.0472230271196</v>
+        <v>408.1653250675266</v>
       </c>
       <c r="F4" t="n">
-        <v>513.0472230271197</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="G4" t="n">
-        <v>513.0472230271197</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="H4" t="n">
-        <v>513.0472230271197</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26828,7 +26828,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>12.007878032336</v>
+        <v>128.4859065627035</v>
       </c>
       <c r="D3" t="n">
-        <v>199.7587774068689</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>593.9082855574162</v>
+        <v>477.6065780881977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105.3765684341288</v>
+        <v>195.6619215118767</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.0472230271196</v>
+        <v>408.1653250675266</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.852797024993326e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.5376090729192</v>
+        <v>232.4195070325122</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.0472230271195</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.989665402209487e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.0472230271196</v>
+        <v>408.1653250675266</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.852797024993326e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.4273130917117209</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>4.376220200492662</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>16.47398796821614</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>36.2676645176677</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>54.35582768982486</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>67.43321072029745</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>75.03243991502576</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>76.24654323685169</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>71.99744868114327</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>61.44815672951015</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>46.14500663258413</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>26.84220599723641</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>9.73739707738085</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>1.870563058968059</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.03418504733693766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.2286326603436818</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>2.208110167003453</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>7.871782384639922</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>21.60077252834759</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>36.91916077137427</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688213</v>
+        <v>49.64236776453495</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430018</v>
+        <v>57.93030170199339</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>59.46354441105257</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104019</v>
+        <v>54.39752598975309</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>43.65881037738254</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>29.18475853790577</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>14.19528043782965</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>4.24675138840128</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.9215500651572083</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.0150416223910317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.191677942163311</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>1.70419115850653</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>5.764278478874845</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>13.55163051094609</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>28.49728241944353</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>30.04638869747246</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>29.33195273122742</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>27.09280586141055</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>23.18257584127899</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>16.05041386605689</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>8.618537290361235</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>3.340423773882427</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.8189875710614194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.01045516048163516</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760119</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677232</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081217</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411506</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R5" t="n">
-        <v>8.843836255870379</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847512</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626979</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520188</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727678</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J6" t="n">
-        <v>7.11691487877999</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335884</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M6" t="n">
-        <v>19.0865870919233</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164375</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263569</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623703</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174388</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170845</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894684</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948818</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394049</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179686</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938413</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587925</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457196</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.331410346465969</v>
+        <v>2.968454153188591</v>
       </c>
       <c r="H11" t="n">
-        <v>34.11780621074461</v>
+        <v>30.40068109634266</v>
       </c>
       <c r="I11" t="n">
-        <v>128.4341973821294</v>
+        <v>114.4413287408033</v>
       </c>
       <c r="J11" t="n">
-        <v>282.7492888933663</v>
+        <v>251.9438356841904</v>
       </c>
       <c r="K11" t="n">
-        <v>423.7678888592708</v>
+        <v>377.5984999886635</v>
       </c>
       <c r="L11" t="n">
-        <v>525.7215382499288</v>
+        <v>468.4443287793089</v>
       </c>
       <c r="M11" t="n">
-        <v>584.966506998893</v>
+        <v>521.2345753260765</v>
       </c>
       <c r="N11" t="n">
-        <v>594.4318766457895</v>
+        <v>529.6686956888236</v>
       </c>
       <c r="O11" t="n">
-        <v>561.3051650131184</v>
+        <v>500.1511297030546</v>
       </c>
       <c r="P11" t="n">
-        <v>479.0609720847398</v>
+        <v>426.8674177962112</v>
       </c>
       <c r="Q11" t="n">
-        <v>359.7548390519271</v>
+        <v>320.5596534351446</v>
       </c>
       <c r="R11" t="n">
-        <v>209.2667051761931</v>
+        <v>186.467158200233</v>
       </c>
       <c r="S11" t="n">
-        <v>75.91451327009335</v>
+        <v>67.64364901578509</v>
       </c>
       <c r="T11" t="n">
-        <v>14.58324879165479</v>
+        <v>12.99440805558306</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2665128277172775</v>
+        <v>0.2374763322550872</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.78246167735677</v>
+        <v>1.588262993378218</v>
       </c>
       <c r="H12" t="n">
-        <v>17.2148272523667</v>
+        <v>15.33927680446858</v>
       </c>
       <c r="I12" t="n">
-        <v>61.36984283881861</v>
+        <v>54.68361621938162</v>
       </c>
       <c r="J12" t="n">
-        <v>168.4035394383429</v>
+        <v>150.0560225454394</v>
       </c>
       <c r="K12" t="n">
-        <v>287.8284718212465</v>
+        <v>256.46964310178</v>
       </c>
       <c r="L12" t="n">
-        <v>387.0209006032758</v>
+        <v>344.8550854701257</v>
       </c>
       <c r="M12" t="n">
-        <v>451.6351364074586</v>
+        <v>402.429618980086</v>
       </c>
       <c r="N12" t="n">
-        <v>463.5885745858732</v>
+        <v>413.0807335277847</v>
       </c>
       <c r="O12" t="n">
-        <v>424.0929763665468</v>
+        <v>377.8881693060885</v>
       </c>
       <c r="P12" t="n">
-        <v>340.3720022313993</v>
+        <v>303.2885710776353</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.5296695517168</v>
+        <v>202.7403778915774</v>
       </c>
       <c r="R12" t="n">
-        <v>110.6689802836072</v>
+        <v>98.61162690465814</v>
       </c>
       <c r="S12" t="n">
-        <v>33.10844387546454</v>
+        <v>29.50128849542433</v>
       </c>
       <c r="T12" t="n">
-        <v>7.184571410047679</v>
+        <v>6.401814433835884</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117267215615577</v>
+        <v>0.1044909864064617</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.494355993527461</v>
+        <v>1.33154634043644</v>
       </c>
       <c r="H13" t="n">
-        <v>13.2861832879078</v>
+        <v>11.83865746315309</v>
       </c>
       <c r="I13" t="n">
-        <v>44.93936024171676</v>
+        <v>40.04322994694315</v>
       </c>
       <c r="J13" t="n">
-        <v>105.6509687423915</v>
+        <v>94.14032626885634</v>
       </c>
       <c r="K13" t="n">
-        <v>173.6169963389177</v>
+        <v>154.7014748252519</v>
       </c>
       <c r="L13" t="n">
-        <v>222.1699810740737</v>
+        <v>197.964625922705</v>
       </c>
       <c r="M13" t="n">
-        <v>234.2470945126728</v>
+        <v>208.7259413467776</v>
       </c>
       <c r="N13" t="n">
-        <v>228.6772221731616</v>
+        <v>203.7629049869693</v>
       </c>
       <c r="O13" t="n">
-        <v>211.2204271578634</v>
+        <v>188.2080227373253</v>
       </c>
       <c r="P13" t="n">
-        <v>180.7355648899031</v>
+        <v>161.0444773924218</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.131936876195</v>
+        <v>111.498848561455</v>
       </c>
       <c r="R13" t="n">
-        <v>67.19167949078928</v>
+        <v>59.87116545271484</v>
       </c>
       <c r="S13" t="n">
-        <v>26.04254945083766</v>
+        <v>23.20522122378778</v>
       </c>
       <c r="T13" t="n">
-        <v>6.384975608708242</v>
+        <v>5.689334363682971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0815103269196798</v>
+        <v>0.07262980038744229</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.331410346465969</v>
+        <v>2.968454153188591</v>
       </c>
       <c r="H14" t="n">
-        <v>34.11780621074461</v>
+        <v>30.40068109634267</v>
       </c>
       <c r="I14" t="n">
-        <v>128.4341973821294</v>
+        <v>114.4413287408033</v>
       </c>
       <c r="J14" t="n">
-        <v>282.7492888933663</v>
+        <v>251.9438356841904</v>
       </c>
       <c r="K14" t="n">
-        <v>423.7678888592708</v>
+        <v>377.5984999886635</v>
       </c>
       <c r="L14" t="n">
-        <v>525.7215382499288</v>
+        <v>468.444328779309</v>
       </c>
       <c r="M14" t="n">
-        <v>584.966506998893</v>
+        <v>521.2345753260767</v>
       </c>
       <c r="N14" t="n">
-        <v>594.4318766457895</v>
+        <v>529.6686956888237</v>
       </c>
       <c r="O14" t="n">
-        <v>561.3051650131184</v>
+        <v>500.1511297030547</v>
       </c>
       <c r="P14" t="n">
-        <v>479.0609720847398</v>
+        <v>426.8674177962112</v>
       </c>
       <c r="Q14" t="n">
-        <v>359.7548390519271</v>
+        <v>320.5596534351447</v>
       </c>
       <c r="R14" t="n">
-        <v>209.2667051761931</v>
+        <v>186.467158200233</v>
       </c>
       <c r="S14" t="n">
-        <v>75.91451327009335</v>
+        <v>67.64364901578509</v>
       </c>
       <c r="T14" t="n">
-        <v>14.58324879165479</v>
+        <v>12.99440805558307</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2665128277172775</v>
+        <v>0.2374763322550872</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.78246167735677</v>
+        <v>1.588262993378218</v>
       </c>
       <c r="H15" t="n">
-        <v>17.2148272523667</v>
+        <v>15.33927680446858</v>
       </c>
       <c r="I15" t="n">
-        <v>61.36984283881861</v>
+        <v>54.68361621938163</v>
       </c>
       <c r="J15" t="n">
-        <v>168.4035394383429</v>
+        <v>150.0560225454394</v>
       </c>
       <c r="K15" t="n">
-        <v>287.8284718212465</v>
+        <v>256.46964310178</v>
       </c>
       <c r="L15" t="n">
-        <v>387.0209006032758</v>
+        <v>344.8550854701258</v>
       </c>
       <c r="M15" t="n">
-        <v>451.6351364074586</v>
+        <v>402.4296189800861</v>
       </c>
       <c r="N15" t="n">
-        <v>463.5885745858732</v>
+        <v>413.0807335277848</v>
       </c>
       <c r="O15" t="n">
-        <v>424.0929763665468</v>
+        <v>377.8881693060885</v>
       </c>
       <c r="P15" t="n">
-        <v>340.3720022313993</v>
+        <v>303.2885710776353</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.5296695517168</v>
+        <v>202.7403778915774</v>
       </c>
       <c r="R15" t="n">
-        <v>110.6689802836072</v>
+        <v>98.61162690465815</v>
       </c>
       <c r="S15" t="n">
-        <v>33.10844387546454</v>
+        <v>29.50128849542433</v>
       </c>
       <c r="T15" t="n">
-        <v>7.184571410047679</v>
+        <v>6.401814433835884</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117267215615577</v>
+        <v>0.1044909864064617</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.494355993527461</v>
+        <v>1.331546340436441</v>
       </c>
       <c r="H16" t="n">
-        <v>13.2861832879078</v>
+        <v>11.83865746315309</v>
       </c>
       <c r="I16" t="n">
-        <v>44.93936024171676</v>
+        <v>40.04322994694316</v>
       </c>
       <c r="J16" t="n">
-        <v>105.6509687423915</v>
+        <v>94.14032626885636</v>
       </c>
       <c r="K16" t="n">
-        <v>173.6169963389177</v>
+        <v>154.7014748252519</v>
       </c>
       <c r="L16" t="n">
-        <v>222.1699810740737</v>
+        <v>197.964625922705</v>
       </c>
       <c r="M16" t="n">
-        <v>234.2470945126728</v>
+        <v>208.7259413467777</v>
       </c>
       <c r="N16" t="n">
-        <v>228.6772221731616</v>
+        <v>203.7629049869693</v>
       </c>
       <c r="O16" t="n">
-        <v>211.2204271578634</v>
+        <v>188.2080227373253</v>
       </c>
       <c r="P16" t="n">
-        <v>180.7355648899031</v>
+        <v>161.0444773924218</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.131936876195</v>
+        <v>111.498848561455</v>
       </c>
       <c r="R16" t="n">
-        <v>67.19167949078928</v>
+        <v>59.87116545271486</v>
       </c>
       <c r="S16" t="n">
-        <v>26.04254945083766</v>
+        <v>23.20522122378778</v>
       </c>
       <c r="T16" t="n">
-        <v>6.384975608708242</v>
+        <v>5.689334363682972</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0815103269196798</v>
+        <v>0.07262980038744231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.331410346465969</v>
+        <v>2.968454153188591</v>
       </c>
       <c r="H17" t="n">
-        <v>34.11780621074461</v>
+        <v>30.40068109634267</v>
       </c>
       <c r="I17" t="n">
-        <v>128.4341973821294</v>
+        <v>114.4413287408033</v>
       </c>
       <c r="J17" t="n">
-        <v>282.7492888933663</v>
+        <v>251.9438356841904</v>
       </c>
       <c r="K17" t="n">
-        <v>423.7678888592708</v>
+        <v>377.5984999886635</v>
       </c>
       <c r="L17" t="n">
-        <v>525.7215382499288</v>
+        <v>468.444328779309</v>
       </c>
       <c r="M17" t="n">
-        <v>584.966506998893</v>
+        <v>521.2345753260767</v>
       </c>
       <c r="N17" t="n">
-        <v>594.4318766457895</v>
+        <v>529.6686956888237</v>
       </c>
       <c r="O17" t="n">
-        <v>561.3051650131184</v>
+        <v>500.1511297030547</v>
       </c>
       <c r="P17" t="n">
-        <v>479.0609720847398</v>
+        <v>426.8674177962112</v>
       </c>
       <c r="Q17" t="n">
-        <v>359.7548390519271</v>
+        <v>320.5596534351447</v>
       </c>
       <c r="R17" t="n">
-        <v>209.2667051761931</v>
+        <v>186.467158200233</v>
       </c>
       <c r="S17" t="n">
-        <v>75.91451327009335</v>
+        <v>67.64364901578509</v>
       </c>
       <c r="T17" t="n">
-        <v>14.58324879165479</v>
+        <v>12.99440805558307</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2665128277172775</v>
+        <v>0.2374763322550872</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.78246167735677</v>
+        <v>1.588262993378218</v>
       </c>
       <c r="H18" t="n">
-        <v>17.2148272523667</v>
+        <v>15.33927680446858</v>
       </c>
       <c r="I18" t="n">
-        <v>61.36984283881861</v>
+        <v>54.68361621938163</v>
       </c>
       <c r="J18" t="n">
-        <v>168.4035394383429</v>
+        <v>150.0560225454394</v>
       </c>
       <c r="K18" t="n">
-        <v>287.8284718212465</v>
+        <v>256.46964310178</v>
       </c>
       <c r="L18" t="n">
-        <v>387.0209006032758</v>
+        <v>344.8550854701258</v>
       </c>
       <c r="M18" t="n">
-        <v>451.6351364074586</v>
+        <v>402.4296189800861</v>
       </c>
       <c r="N18" t="n">
-        <v>463.5885745858732</v>
+        <v>413.0807335277848</v>
       </c>
       <c r="O18" t="n">
-        <v>424.0929763665468</v>
+        <v>377.8881693060885</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3720022313993</v>
+        <v>303.2885710776353</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.5296695517168</v>
+        <v>202.7403778915774</v>
       </c>
       <c r="R18" t="n">
-        <v>110.6689802836072</v>
+        <v>98.61162690465815</v>
       </c>
       <c r="S18" t="n">
-        <v>33.10844387546454</v>
+        <v>29.50128849542433</v>
       </c>
       <c r="T18" t="n">
-        <v>7.184571410047679</v>
+        <v>6.401814433835884</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117267215615577</v>
+        <v>0.1044909864064617</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.494355993527461</v>
+        <v>1.331546340436441</v>
       </c>
       <c r="H19" t="n">
-        <v>13.2861832879078</v>
+        <v>11.83865746315309</v>
       </c>
       <c r="I19" t="n">
-        <v>44.93936024171676</v>
+        <v>40.04322994694316</v>
       </c>
       <c r="J19" t="n">
-        <v>105.6509687423915</v>
+        <v>94.14032626885636</v>
       </c>
       <c r="K19" t="n">
-        <v>173.6169963389177</v>
+        <v>154.7014748252519</v>
       </c>
       <c r="L19" t="n">
-        <v>222.1699810740737</v>
+        <v>197.964625922705</v>
       </c>
       <c r="M19" t="n">
-        <v>234.2470945126728</v>
+        <v>208.7259413467777</v>
       </c>
       <c r="N19" t="n">
-        <v>228.6772221731616</v>
+        <v>203.7629049869693</v>
       </c>
       <c r="O19" t="n">
-        <v>211.2204271578634</v>
+        <v>188.2080227373253</v>
       </c>
       <c r="P19" t="n">
-        <v>180.7355648899031</v>
+        <v>161.0444773924218</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.131936876195</v>
+        <v>111.498848561455</v>
       </c>
       <c r="R19" t="n">
-        <v>67.19167949078928</v>
+        <v>59.87116545271486</v>
       </c>
       <c r="S19" t="n">
-        <v>26.04254945083766</v>
+        <v>23.20522122378778</v>
       </c>
       <c r="T19" t="n">
-        <v>6.384975608708242</v>
+        <v>5.689334363682972</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0815103269196798</v>
+        <v>0.07262980038744231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.331410346465969</v>
+        <v>2.968454153188591</v>
       </c>
       <c r="H20" t="n">
-        <v>34.11780621074461</v>
+        <v>30.40068109634267</v>
       </c>
       <c r="I20" t="n">
-        <v>128.4341973821294</v>
+        <v>114.4413287408033</v>
       </c>
       <c r="J20" t="n">
-        <v>282.7492888933663</v>
+        <v>251.9438356841904</v>
       </c>
       <c r="K20" t="n">
-        <v>423.7678888592708</v>
+        <v>377.5984999886635</v>
       </c>
       <c r="L20" t="n">
-        <v>525.7215382499288</v>
+        <v>468.444328779309</v>
       </c>
       <c r="M20" t="n">
-        <v>584.966506998893</v>
+        <v>521.2345753260767</v>
       </c>
       <c r="N20" t="n">
-        <v>594.4318766457895</v>
+        <v>529.6686956888237</v>
       </c>
       <c r="O20" t="n">
-        <v>561.3051650131184</v>
+        <v>500.1511297030547</v>
       </c>
       <c r="P20" t="n">
-        <v>479.0609720847398</v>
+        <v>426.8674177962112</v>
       </c>
       <c r="Q20" t="n">
-        <v>359.7548390519271</v>
+        <v>320.5596534351447</v>
       </c>
       <c r="R20" t="n">
-        <v>209.2667051761931</v>
+        <v>186.467158200233</v>
       </c>
       <c r="S20" t="n">
-        <v>75.91451327009335</v>
+        <v>67.64364901578509</v>
       </c>
       <c r="T20" t="n">
-        <v>14.58324879165479</v>
+        <v>12.99440805558307</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2665128277172775</v>
+        <v>0.2374763322550872</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.78246167735677</v>
+        <v>1.588262993378218</v>
       </c>
       <c r="H21" t="n">
-        <v>17.2148272523667</v>
+        <v>15.33927680446858</v>
       </c>
       <c r="I21" t="n">
-        <v>61.36984283881861</v>
+        <v>54.68361621938163</v>
       </c>
       <c r="J21" t="n">
-        <v>168.4035394383429</v>
+        <v>150.0560225454394</v>
       </c>
       <c r="K21" t="n">
-        <v>287.8284718212465</v>
+        <v>256.46964310178</v>
       </c>
       <c r="L21" t="n">
-        <v>387.0209006032758</v>
+        <v>344.8550854701258</v>
       </c>
       <c r="M21" t="n">
-        <v>451.6351364074586</v>
+        <v>402.4296189800861</v>
       </c>
       <c r="N21" t="n">
-        <v>463.5885745858732</v>
+        <v>413.0807335277848</v>
       </c>
       <c r="O21" t="n">
-        <v>424.0929763665468</v>
+        <v>377.8881693060885</v>
       </c>
       <c r="P21" t="n">
-        <v>340.3720022313993</v>
+        <v>303.2885710776353</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.5296695517168</v>
+        <v>202.7403778915774</v>
       </c>
       <c r="R21" t="n">
-        <v>110.6689802836072</v>
+        <v>98.61162690465815</v>
       </c>
       <c r="S21" t="n">
-        <v>33.10844387546454</v>
+        <v>29.50128849542433</v>
       </c>
       <c r="T21" t="n">
-        <v>7.184571410047679</v>
+        <v>6.401814433835884</v>
       </c>
       <c r="U21" t="n">
-        <v>0.117267215615577</v>
+        <v>0.1044909864064617</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.494355993527461</v>
+        <v>1.331546340436441</v>
       </c>
       <c r="H22" t="n">
-        <v>13.2861832879078</v>
+        <v>11.83865746315309</v>
       </c>
       <c r="I22" t="n">
-        <v>44.93936024171676</v>
+        <v>40.04322994694316</v>
       </c>
       <c r="J22" t="n">
-        <v>105.6509687423915</v>
+        <v>94.14032626885636</v>
       </c>
       <c r="K22" t="n">
-        <v>173.6169963389177</v>
+        <v>154.7014748252519</v>
       </c>
       <c r="L22" t="n">
-        <v>222.1699810740737</v>
+        <v>197.964625922705</v>
       </c>
       <c r="M22" t="n">
-        <v>234.2470945126728</v>
+        <v>208.7259413467777</v>
       </c>
       <c r="N22" t="n">
-        <v>228.6772221731616</v>
+        <v>203.7629049869693</v>
       </c>
       <c r="O22" t="n">
-        <v>211.2204271578634</v>
+        <v>188.2080227373253</v>
       </c>
       <c r="P22" t="n">
-        <v>180.7355648899031</v>
+        <v>161.0444773924218</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.131936876195</v>
+        <v>111.498848561455</v>
       </c>
       <c r="R22" t="n">
-        <v>67.19167949078928</v>
+        <v>59.87116545271486</v>
       </c>
       <c r="S22" t="n">
-        <v>26.04254945083766</v>
+        <v>23.20522122378778</v>
       </c>
       <c r="T22" t="n">
-        <v>6.384975608708242</v>
+        <v>5.689334363682972</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0815103269196798</v>
+        <v>0.07262980038744231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H23" t="n">
         <v>38.45624955336179</v>
@@ -32715,16 +32715,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N23" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
         <v>539.9786897190645</v>
@@ -32736,7 +32736,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T23" t="n">
         <v>16.4376645838976</v>
@@ -32785,7 +32785,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32797,16 +32797,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q24" t="n">
         <v>256.4624964168761</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32891,7 +32891,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
@@ -32900,7 +32900,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H41" t="n">
         <v>38.45624955336179</v>
@@ -34137,16 +34137,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N41" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34158,7 +34158,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
@@ -34207,7 +34207,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34219,16 +34219,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O42" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q42" t="n">
         <v>256.4624964168761</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34313,7 +34313,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S43" t="n">
         <v>29.35413767523479</v>
@@ -34322,7 +34322,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342214</v>
       </c>
       <c r="O44" t="n">
         <v>632.6811099166596</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.70338436668</v>
+        <v>70.8979311575041</v>
       </c>
       <c r="K11" t="n">
-        <v>203.6780378142903</v>
+        <v>157.5086489436829</v>
       </c>
       <c r="L11" t="n">
-        <v>289.9551232799416</v>
+        <v>232.6779138093217</v>
       </c>
       <c r="M11" t="n">
-        <v>354.6202737716203</v>
+        <v>290.8883420988038</v>
       </c>
       <c r="N11" t="n">
-        <v>365.0188130491986</v>
+        <v>300.2556320922327</v>
       </c>
       <c r="O11" t="n">
-        <v>331.2069535914317</v>
+        <v>270.0529182813679</v>
       </c>
       <c r="P11" t="n">
-        <v>247.8279763294702</v>
+        <v>195.6344220409416</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.4491491774777</v>
+        <v>98.25396356069515</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.3507335043949</v>
+        <v>23.21839587877272</v>
       </c>
       <c r="K12" t="n">
-        <v>414.4522698594661</v>
+        <v>377.2513715825018</v>
       </c>
       <c r="L12" t="n">
-        <v>248.4665208234017</v>
+        <v>206.3007056902516</v>
       </c>
       <c r="M12" t="n">
-        <v>309.5011024854403</v>
+        <v>260.2955850580677</v>
       </c>
       <c r="N12" t="n">
-        <v>332.2468625025399</v>
+        <v>281.7390214444514</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4967319221024</v>
+        <v>235.291924861644</v>
       </c>
       <c r="P12" t="n">
-        <v>206.3975948170691</v>
+        <v>169.314163663305</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.54789546569526</v>
+        <v>62.75860380555588</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.29178862571874</v>
+        <v>0.7811461521835668</v>
       </c>
       <c r="K13" t="n">
-        <v>151.3475045130349</v>
+        <v>132.431982999369</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7600063343898</v>
+        <v>225.5546511830212</v>
       </c>
       <c r="M13" t="n">
-        <v>273.8309714745134</v>
+        <v>248.3098183086182</v>
       </c>
       <c r="N13" t="n">
-        <v>272.8093945523901</v>
+        <v>247.8950773661979</v>
       </c>
       <c r="O13" t="n">
-        <v>235.8055550719031</v>
+        <v>212.793150651365</v>
       </c>
       <c r="P13" t="n">
-        <v>178.0141241547965</v>
+        <v>158.3230366573153</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.96989362450059</v>
+        <v>25.33680530976065</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.70338436668</v>
+        <v>70.89793115750413</v>
       </c>
       <c r="K14" t="n">
-        <v>203.6780378142903</v>
+        <v>157.508648943683</v>
       </c>
       <c r="L14" t="n">
-        <v>289.9551232799416</v>
+        <v>232.6779138093218</v>
       </c>
       <c r="M14" t="n">
-        <v>354.6202737716203</v>
+        <v>290.8883420988039</v>
       </c>
       <c r="N14" t="n">
-        <v>365.0188130491986</v>
+        <v>300.2556320922328</v>
       </c>
       <c r="O14" t="n">
-        <v>331.2069535914317</v>
+        <v>270.052918281368</v>
       </c>
       <c r="P14" t="n">
-        <v>247.8279763294702</v>
+        <v>195.6344220409417</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.4491491774777</v>
+        <v>98.25396356069521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.56591277167621</v>
+        <v>42.99040192963136</v>
       </c>
       <c r="K15" t="n">
-        <v>414.4522698594661</v>
+        <v>118.628204127421</v>
       </c>
       <c r="L15" t="n">
-        <v>248.4665208234017</v>
+        <v>206.3007056902516</v>
       </c>
       <c r="M15" t="n">
-        <v>309.5011024854403</v>
+        <v>260.2955850580678</v>
       </c>
       <c r="N15" t="n">
-        <v>332.2468625025399</v>
+        <v>281.7390214444515</v>
       </c>
       <c r="O15" t="n">
-        <v>391.2815526548218</v>
+        <v>235.2919248616441</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3975948170691</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.54789546569526</v>
+        <v>62.75860380555591</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.29178862571874</v>
+        <v>0.781146152183581</v>
       </c>
       <c r="K16" t="n">
-        <v>151.3475045130349</v>
+        <v>132.431982999369</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7600063343898</v>
+        <v>225.5546511830212</v>
       </c>
       <c r="M16" t="n">
-        <v>273.8309714745134</v>
+        <v>248.3098183086182</v>
       </c>
       <c r="N16" t="n">
-        <v>272.8093945523901</v>
+        <v>247.8950773661979</v>
       </c>
       <c r="O16" t="n">
-        <v>235.8055550719031</v>
+        <v>212.793150651365</v>
       </c>
       <c r="P16" t="n">
-        <v>178.0141241547965</v>
+        <v>158.3230366573153</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.96989362450059</v>
+        <v>25.33680530976066</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.70338436668</v>
+        <v>70.89793115750413</v>
       </c>
       <c r="K17" t="n">
-        <v>203.6780378142903</v>
+        <v>157.508648943683</v>
       </c>
       <c r="L17" t="n">
-        <v>289.9551232799416</v>
+        <v>232.6779138093218</v>
       </c>
       <c r="M17" t="n">
-        <v>354.6202737716203</v>
+        <v>290.8883420988039</v>
       </c>
       <c r="N17" t="n">
-        <v>365.0188130491986</v>
+        <v>300.2556320922328</v>
       </c>
       <c r="O17" t="n">
-        <v>331.2069535914317</v>
+        <v>270.052918281368</v>
       </c>
       <c r="P17" t="n">
-        <v>247.8279763294702</v>
+        <v>195.6344220409417</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.4491491774777</v>
+        <v>98.25396356069521</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>167.656948112085</v>
+        <v>23.21839587877275</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5576213849633</v>
+        <v>377.2513715825012</v>
       </c>
       <c r="L18" t="n">
-        <v>248.4665208234017</v>
+        <v>206.3007056902516</v>
       </c>
       <c r="M18" t="n">
-        <v>309.5011024854403</v>
+        <v>260.2955850580678</v>
       </c>
       <c r="N18" t="n">
-        <v>332.2468625025399</v>
+        <v>281.7390214444515</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4967319221024</v>
+        <v>235.2919248616441</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3975948170691</v>
+        <v>169.3141636633051</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.6251832015444</v>
+        <v>62.75860380555591</v>
       </c>
       <c r="R18" t="n">
-        <v>10.51114613096406</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.29178862571874</v>
+        <v>0.781146152183581</v>
       </c>
       <c r="K19" t="n">
-        <v>151.3475045130349</v>
+        <v>132.431982999369</v>
       </c>
       <c r="L19" t="n">
-        <v>249.7600063343898</v>
+        <v>225.5546511830212</v>
       </c>
       <c r="M19" t="n">
-        <v>273.8309714745134</v>
+        <v>248.3098183086182</v>
       </c>
       <c r="N19" t="n">
-        <v>272.8093945523901</v>
+        <v>247.8950773661979</v>
       </c>
       <c r="O19" t="n">
-        <v>235.8055550719031</v>
+        <v>212.793150651365</v>
       </c>
       <c r="P19" t="n">
-        <v>178.0141241547965</v>
+        <v>158.3230366573153</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.96989362450059</v>
+        <v>25.33680530976066</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.70338436668</v>
+        <v>70.89793115750413</v>
       </c>
       <c r="K20" t="n">
-        <v>203.6780378142903</v>
+        <v>157.508648943683</v>
       </c>
       <c r="L20" t="n">
-        <v>289.9551232799416</v>
+        <v>232.6779138093218</v>
       </c>
       <c r="M20" t="n">
-        <v>354.6202737716203</v>
+        <v>290.8883420988039</v>
       </c>
       <c r="N20" t="n">
-        <v>365.0188130491986</v>
+        <v>300.2556320922328</v>
       </c>
       <c r="O20" t="n">
-        <v>331.2069535914317</v>
+        <v>270.052918281368</v>
       </c>
       <c r="P20" t="n">
-        <v>247.8279763294702</v>
+        <v>195.6344220409417</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.4491491774777</v>
+        <v>98.25396356069521</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.56591277167621</v>
+        <v>23.21839587877275</v>
       </c>
       <c r="K21" t="n">
-        <v>149.9870328468875</v>
+        <v>118.628204127421</v>
       </c>
       <c r="L21" t="n">
-        <v>316.066950358649</v>
+        <v>292.0504729394491</v>
       </c>
       <c r="M21" t="n">
-        <v>309.5011024854403</v>
+        <v>260.2955850580678</v>
       </c>
       <c r="N21" t="n">
-        <v>332.2468625025399</v>
+        <v>281.7390214444515</v>
       </c>
       <c r="O21" t="n">
-        <v>281.4967319221024</v>
+        <v>408.1653250675267</v>
       </c>
       <c r="P21" t="n">
-        <v>513.0472230271197</v>
+        <v>169.3141636633051</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.54789546569526</v>
+        <v>62.75860380555591</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.29178862571874</v>
+        <v>0.781146152183581</v>
       </c>
       <c r="K22" t="n">
-        <v>151.3475045130349</v>
+        <v>132.431982999369</v>
       </c>
       <c r="L22" t="n">
-        <v>249.7600063343898</v>
+        <v>225.5546511830212</v>
       </c>
       <c r="M22" t="n">
-        <v>273.8309714745134</v>
+        <v>248.3098183086182</v>
       </c>
       <c r="N22" t="n">
-        <v>272.8093945523901</v>
+        <v>247.8950773661979</v>
       </c>
       <c r="O22" t="n">
-        <v>235.8055550719031</v>
+        <v>212.793150651365</v>
       </c>
       <c r="P22" t="n">
-        <v>178.0141241547965</v>
+        <v>158.3230366573153</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.96989362450059</v>
+        <v>25.33680530976066</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N23" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
         <v>308.745693963795</v>
@@ -36381,7 +36381,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>411.6868389156659</v>
       </c>
       <c r="Q24" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
         <v>303.6179906468033</v>
@@ -36530,13 +36530,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L30" t="n">
-        <v>553.5225306839452</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N30" t="n">
         <v>391.1970995928739</v>
@@ -36931,7 +36931,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>373.0365088578702</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37165,13 +37165,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L36" t="n">
-        <v>436.6197581489562</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820405</v>
@@ -37405,7 +37405,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313201</v>
+        <v>316.0205096502335</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37633,7 +37633,7 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N39" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O39" t="n">
         <v>335.424681996123</v>
@@ -37642,10 +37642,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37803,7 +37803,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000389</v>
+        <v>538.1269048795934</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>427.1133740445991</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235323</v>
@@ -37882,7 +37882,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K43" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
@@ -37952,13 +37952,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376306</v>
       </c>
       <c r="O44" t="n">
         <v>402.5828984949728</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38113,13 +38113,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
